--- a/doc/thesis/pictures/resultate/loesung1/loesung1-1/resultate_loesung1_1.xlsx
+++ b/doc/thesis/pictures/resultate/loesung1/loesung1-1/resultate_loesung1_1.xlsx
@@ -487,14 +487,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247599808"/>
-        <c:axId val="247598240"/>
+        <c:axId val="262027216"/>
+        <c:axId val="262025648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247599808"/>
+        <c:axId val="262027216"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
+          <c:min val="16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -617,12 +618,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247598240"/>
+        <c:crossAx val="262025648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247598240"/>
+        <c:axId val="262025648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,7 +731,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247599808"/>
+        <c:crossAx val="262027216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -806,7 +807,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1692,7 +1693,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
